--- a/data/datasheet.xlsx
+++ b/data/datasheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
   <si>
     <t>Pin</t>
   </si>
@@ -240,151 +240,316 @@
     <t>opcode</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>0012</t>
-  </si>
-  <si>
-    <t>0013</t>
-  </si>
-  <si>
-    <t>0014</t>
-  </si>
-  <si>
-    <t>0015</t>
-  </si>
-  <si>
-    <t>0016</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>0017</t>
-  </si>
-  <si>
-    <t>0018</t>
-  </si>
-  <si>
-    <t>0019</t>
-  </si>
-  <si>
-    <t>0020</t>
-  </si>
-  <si>
-    <t>0021</t>
-  </si>
-  <si>
-    <t>0022</t>
-  </si>
-  <si>
-    <t>0023</t>
-  </si>
-  <si>
-    <t>0024</t>
-  </si>
-  <si>
-    <t>0025</t>
-  </si>
-  <si>
-    <t>0026</t>
-  </si>
-  <si>
-    <t>0027</t>
-  </si>
-  <si>
-    <t>0028</t>
-  </si>
-  <si>
-    <t>0029</t>
-  </si>
-  <si>
-    <t>0030</t>
-  </si>
-  <si>
-    <t>0031</t>
-  </si>
-  <si>
-    <t>0032</t>
-  </si>
-  <si>
-    <t>0033</t>
-  </si>
-  <si>
-    <t>0034</t>
-  </si>
-  <si>
-    <t>0035</t>
-  </si>
-  <si>
-    <t>0036</t>
-  </si>
-  <si>
-    <t>0037</t>
-  </si>
-  <si>
-    <t>0038</t>
-  </si>
-  <si>
-    <t>0039</t>
-  </si>
-  <si>
-    <t>0040</t>
-  </si>
-  <si>
-    <t>0041</t>
-  </si>
-  <si>
-    <t>0042</t>
-  </si>
-  <si>
-    <t>0043</t>
-  </si>
-  <si>
-    <t>0044</t>
-  </si>
-  <si>
-    <t>0045</t>
-  </si>
-  <si>
-    <t>0046</t>
-  </si>
-  <si>
-    <t>0047</t>
-  </si>
-  <si>
-    <t>0048</t>
+    <t>RGZ = 0</t>
+  </si>
+  <si>
+    <t>RGA + RGB</t>
+  </si>
+  <si>
+    <t>RGA - RGB</t>
+  </si>
+  <si>
+    <t>RGA ^ RGB</t>
+  </si>
+  <si>
+    <t>RGA &amp; RGB</t>
+  </si>
+  <si>
+    <t>RGA | RGB</t>
+  </si>
+  <si>
+    <t>RGA &amp;&amp; RGB</t>
+  </si>
+  <si>
+    <t>RGA || RGB</t>
+  </si>
+  <si>
+    <t>RGA + 1</t>
+  </si>
+  <si>
+    <t>RGA - 1</t>
+  </si>
+  <si>
+    <t>RGA &lt;&lt; 1</t>
+  </si>
+  <si>
+    <t>RGA &gt;&gt; 1</t>
+  </si>
+  <si>
+    <t>! RGA</t>
+  </si>
+  <si>
+    <t>~ RGA</t>
+  </si>
+  <si>
+    <t>RGA + RGA</t>
+  </si>
+  <si>
+    <t>RGA - RGA</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>0B</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>0F</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>1E</t>
+  </si>
+  <si>
+    <t>1F</t>
+  </si>
+  <si>
+    <t>RGB + RGZ</t>
+  </si>
+  <si>
+    <t>RGB - RGZ</t>
+  </si>
+  <si>
+    <t>RGB ^ RGZ</t>
+  </si>
+  <si>
+    <t>RGB &amp; RGZ</t>
+  </si>
+  <si>
+    <t>RGB | RGZ</t>
+  </si>
+  <si>
+    <t>RGB &amp;&amp; RGZ</t>
+  </si>
+  <si>
+    <t>RGB || RGZ</t>
+  </si>
+  <si>
+    <t>RGB + 1</t>
+  </si>
+  <si>
+    <t>RGZ + 1</t>
+  </si>
+  <si>
+    <t>RGZ - 1</t>
+  </si>
+  <si>
+    <t>RGZ &lt;&lt; 1</t>
+  </si>
+  <si>
+    <t>RGZ &gt;&gt; 1</t>
+  </si>
+  <si>
+    <t>! RGZ</t>
+  </si>
+  <si>
+    <t>~ RGZ</t>
+  </si>
+  <si>
+    <t>RGZ + RGZ</t>
+  </si>
+  <si>
+    <t>RGZ - RGZ</t>
+  </si>
+  <si>
+    <t>RGB + RGA</t>
+  </si>
+  <si>
+    <t>RGB - RGB</t>
+  </si>
+  <si>
+    <t>RGB - RGA</t>
+  </si>
+  <si>
+    <t>RGB &amp; RGA</t>
+  </si>
+  <si>
+    <t>RGB ^ RGA</t>
+  </si>
+  <si>
+    <t>RGB | RGA</t>
+  </si>
+  <si>
+    <t>RGB &amp;&amp; RGA</t>
+  </si>
+  <si>
+    <t>RGB || RGA</t>
+  </si>
+  <si>
+    <t>RGB - 1</t>
+  </si>
+  <si>
+    <t>RGB &lt;&lt; 1</t>
+  </si>
+  <si>
+    <t>RGB &gt;&gt; 1</t>
+  </si>
+  <si>
+    <t>! RGB</t>
+  </si>
+  <si>
+    <t>~ RGB</t>
+  </si>
+  <si>
+    <t>RGB + RGB</t>
+  </si>
+  <si>
+    <t>RGA + RGZ</t>
+  </si>
+  <si>
+    <t>RGA - RGZ</t>
+  </si>
+  <si>
+    <t>Operation Z</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2E</t>
+  </si>
+  <si>
+    <t>2F</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>NO VALUE</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>2 bit</t>
+  </si>
+  <si>
+    <t>3 bit</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>8 bit</t>
   </si>
 </sst>
 </file>
@@ -408,7 +573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,8 +586,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -458,11 +629,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,9 +703,45 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -780,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +1033,10 @@
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" customWidth="1"/>
-    <col min="6" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="6" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="5" customWidth="1"/>
+    <col min="11" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
@@ -818,19 +1062,19 @@
         <v>70</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>70</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>70</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
@@ -853,17 +1097,23 @@
         <v>68</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="13"/>
       <c r="K6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="14"/>
+        <v>103</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="M6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N6" s="14"/>
+        <v>149</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
@@ -885,17 +1135,23 @@
         <v>68</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="13"/>
       <c r="K7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="14"/>
+        <v>104</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="M7" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="14"/>
+        <v>150</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
@@ -917,17 +1173,23 @@
         <v>68</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="13"/>
       <c r="K8" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="M8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8" s="14"/>
+        <v>151</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
@@ -949,17 +1211,23 @@
         <v>68</v>
       </c>
       <c r="I9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="13"/>
       <c r="K9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="M9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" s="14"/>
+        <v>152</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
@@ -981,17 +1249,23 @@
         <v>68</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="13"/>
       <c r="K10" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="M10" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="14"/>
+        <v>153</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
@@ -1013,17 +1287,23 @@
         <v>68</v>
       </c>
       <c r="I11" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="13"/>
       <c r="K11" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="M11" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N11" s="14"/>
+        <v>154</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
@@ -1045,17 +1325,23 @@
         <v>68</v>
       </c>
       <c r="I12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="13"/>
       <c r="K12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="M12" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
@@ -1077,17 +1363,23 @@
         <v>68</v>
       </c>
       <c r="I13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="13"/>
       <c r="K13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="M13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="N13" s="14"/>
+        <v>156</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
@@ -1109,17 +1401,23 @@
         <v>68</v>
       </c>
       <c r="I14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="13"/>
       <c r="K14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="14"/>
+        <v>58</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="M14" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
@@ -1141,17 +1439,23 @@
         <v>68</v>
       </c>
       <c r="I15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="13"/>
       <c r="K15" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="L15" s="14"/>
+        <v>109</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="M15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N15" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
@@ -1173,17 +1477,23 @@
         <v>68</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="13"/>
       <c r="K16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="M16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N16" s="14"/>
+        <v>158</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
@@ -1205,17 +1515,23 @@
         <v>68</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="13"/>
       <c r="K17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="M17" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" s="14"/>
+        <v>159</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
@@ -1237,17 +1553,23 @@
         <v>68</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="13"/>
       <c r="K18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" s="14"/>
+        <v>113</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="M18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="N18" s="14"/>
+        <v>160</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
@@ -1269,17 +1591,23 @@
         <v>68</v>
       </c>
       <c r="I19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="13"/>
       <c r="K19" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="M19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" s="14"/>
+        <v>161</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
@@ -1301,17 +1629,23 @@
         <v>68</v>
       </c>
       <c r="I20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="13"/>
       <c r="K20" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="M20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="N20" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
@@ -1333,17 +1667,23 @@
         <v>68</v>
       </c>
       <c r="I21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="13"/>
       <c r="K21" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="M21" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N21" s="14"/>
+        <v>163</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
@@ -1365,6 +1705,12 @@
         <v>68</v>
       </c>
       <c r="I22" s="3"/>
+      <c r="M22" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
@@ -1385,7 +1731,20 @@
       <c r="H23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
@@ -1406,7 +1765,24 @@
       <c r="H24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
@@ -1427,7 +1803,18 @@
       <c r="H25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
@@ -1448,7 +1835,20 @@
       <c r="H26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -1469,7 +1869,14 @@
       <c r="H27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
@@ -1808,7 +2215,17 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="I6:I21 M6:M22 K6:K21 I24:K24 K26" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/datasheet.xlsx
+++ b/data/datasheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Assistant File\HNS\skripsi_hanjara\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AssistantFile\HNS\skripsi_hanjara\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="199">
   <si>
     <t>Pin</t>
   </si>
@@ -550,6 +550,78 @@
   </si>
   <si>
     <t>8 bit</t>
+  </si>
+  <si>
+    <t>CLK</t>
+  </si>
+  <si>
+    <t>REG A</t>
+  </si>
+  <si>
+    <t>REG Z</t>
+  </si>
+  <si>
+    <t>00000111</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>00000101</t>
+  </si>
+  <si>
+    <t>00000110</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000100</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>01000000</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>11000010</t>
+  </si>
+  <si>
+    <t>01000010</t>
+  </si>
+  <si>
+    <t>01000001</t>
+  </si>
+  <si>
+    <t>01000100</t>
+  </si>
+  <si>
+    <t>10000010</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>11000001</t>
+  </si>
+  <si>
+    <t>10000001</t>
+  </si>
+  <si>
+    <t>11000100</t>
+  </si>
+  <si>
+    <t>10000100</t>
   </si>
 </sst>
 </file>
@@ -670,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,13 +781,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,6 +791,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -1740,11 +1815,11 @@
       <c r="K23" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
@@ -1803,16 +1878,16 @@
       <c r="H25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="24" t="s">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N25" s="14" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1844,11 +1919,11 @@
       <c r="K26" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="16"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -1869,14 +1944,14 @@
       <c r="H27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21" t="s">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
@@ -2228,4 +2303,298 @@
     <ignoredError sqref="I6:I21 M6:M22 K6:K21 I24:K24 K26" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B8 B2 B3 B4 B5 B6 B7 B10 B9 B12 B11 B14 B13 B16 B15 B18 B17 B20 B19 C18 C14 C10 C2:C9 C11:C13 C15:C17 C19:C20" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/datasheet.xlsx
+++ b/data/datasheet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="210">
   <si>
     <t>Pin</t>
   </si>
@@ -622,6 +622,39 @@
   </si>
   <si>
     <t>10000100</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>HCUT</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>MCUT</t>
   </si>
 </sst>
 </file>
@@ -645,7 +678,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +694,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,6 +835,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,7 +868,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1815,11 +1884,11 @@
       <c r="K23" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
@@ -1878,9 +1947,9 @@
       <c r="H25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="14" t="s">
         <v>172</v>
       </c>
@@ -1919,11 +1988,11 @@
       <c r="K26" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -1944,14 +2013,14 @@
       <c r="H27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22" t="s">
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
@@ -2307,19 +2376,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="3" width="15.28515625" customWidth="1"/>
+    <col min="6" max="14" width="2.85546875" customWidth="1"/>
+    <col min="15" max="15" width="1.28515625" customWidth="1"/>
+    <col min="16" max="23" width="2.85546875" customWidth="1"/>
+    <col min="24" max="33" width="3.7109375" style="26" customWidth="1"/>
+    <col min="34" max="35" width="5.85546875" customWidth="1"/>
+    <col min="36" max="36" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>175</v>
       </c>
@@ -2329,8 +2404,51 @@
       <c r="C1" s="10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2340,8 +2458,67 @@
       <c r="C2" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z2" s="31">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="31">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="31">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="31">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="31">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="31">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="31">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI2" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ2" s="29"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2351,8 +2528,101 @@
       <c r="C3" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <f>N3*AG3+M3*AF3+L3*AE3+K3*AD3+J3*AC3+I3*AB3+H3*AA3+G3*Z3</f>
+        <v>6</v>
+      </c>
+      <c r="Y3" s="1">
+        <f>W3*AG3+V3*AF3+U3*AE3+T3*AD3+S3*AC3+R3*AB3+Q3*AA3+P3*Z3</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <f>IF(Y3&gt;=Z3+AA3,Y3-(Z3+AA3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <f>IF(AH3&gt;0,AH3-(T3*AD3+S3*AC3+R3*AB3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2362,8 +2632,101 @@
       <c r="C4" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="28"/>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" ref="X4:X21" si="0">N4*AG4+M4*AF4+L4*AE4+K4*AD4+J4*AC4+I4*AB4+H4*AA4+G4*Z4</f>
+        <v>4</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4:Y21" si="1">W4*AG4+V4*AF4+U4*AE4+T4*AD4+S4*AC4+R4*AB4+Q4*AA4+P4*Z4</f>
+        <v>64</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="1">
+        <f t="shared" ref="AH4:AH21" si="2">IF(Y4&gt;=Z4+AA4,Y4-(Z4+AA4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <f t="shared" ref="AI4:AI21" si="3">IF(AH4&gt;0,AH4-(T4*AD4+S4*AC4+R4*AB4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="1"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2373,8 +2736,101 @@
       <c r="C5" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2384,8 +2840,101 @@
       <c r="C6" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="28"/>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="1"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2395,8 +2944,101 @@
       <c r="C7" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2406,8 +3048,101 @@
       <c r="C8" s="6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="28"/>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2417,8 +3152,101 @@
       <c r="C9" s="6" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2428,8 +3256,101 @@
       <c r="C10" s="6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="28"/>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2439,8 +3360,101 @@
       <c r="C11" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="28"/>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2450,8 +3464,101 @@
       <c r="C12" s="6" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2461,8 +3568,101 @@
       <c r="C13" s="6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="1"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2472,8 +3672,101 @@
       <c r="C14" s="6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="28"/>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="AI14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2483,8 +3776,101 @@
       <c r="C15" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2494,8 +3880,101 @@
       <c r="C16" s="6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="1"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2505,8 +3984,101 @@
       <c r="C17" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="28"/>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2516,8 +4088,101 @@
       <c r="C18" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="AI18" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="1"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2527,8 +4192,101 @@
       <c r="C19" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="1"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2538,23 +4296,209 @@
       <c r="C20" s="6" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="1"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="28"/>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="1"/>
+        <v>164</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>128</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -2563,28 +4507,28 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>4</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -2592,7 +4536,19 @@
       <c r="C27" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="O2:O21"/>
+    <mergeCell ref="G1:W1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B8 B2 B3 B4 B5 B6 B7 B10 B9 B12 B11 B14 B13 B16 B15 B18 B17 B20 B19 C18 C14 C10 C2:C9 C11:C13 C15:C17 C19:C20" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/data/datasheet.xlsx
+++ b/data/datasheet.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pengujian" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="240">
   <si>
     <t>Pin</t>
   </si>
@@ -655,6 +656,96 @@
   </si>
   <si>
     <t>MCUT</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Input arrival time before clock</t>
+  </si>
+  <si>
+    <t>Output required time after clock</t>
+  </si>
+  <si>
+    <t>Unprotected</t>
+  </si>
+  <si>
+    <t>Protected</t>
+  </si>
+  <si>
+    <t>4.023ns</t>
+  </si>
+  <si>
+    <t>248.571MHz (freq)</t>
+  </si>
+  <si>
+    <t>8.667ns</t>
+  </si>
+  <si>
+    <t>6.962ns</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2.692ns</t>
+  </si>
+  <si>
+    <t>10.075ns</t>
+  </si>
+  <si>
+    <t>5.558ns</t>
+  </si>
+  <si>
+    <t>371.471MHz (freq)</t>
+  </si>
+  <si>
+    <t>Static Power</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Power (mW)</t>
+  </si>
+  <si>
+    <t>Power Supply Currents</t>
+  </si>
+  <si>
+    <t>On-Chip Power Summary</t>
+  </si>
+  <si>
+    <t>FPGA Speed</t>
+  </si>
+  <si>
+    <t>Vccint</t>
+  </si>
+  <si>
+    <t>Vccaux</t>
+  </si>
+  <si>
+    <t>Vcco25</t>
+  </si>
+  <si>
+    <t>Supply Source</t>
+  </si>
+  <si>
+    <t>Supply Voltage</t>
+  </si>
+  <si>
+    <t>Total Current (mA)</t>
+  </si>
+  <si>
+    <t>Dynamic Current (mA)</t>
+  </si>
+  <si>
+    <t>Quiescent Current (mA)</t>
   </si>
 </sst>
 </file>
@@ -793,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,6 +929,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,22 +968,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1884,11 +1985,11 @@
       <c r="K23" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="18"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
@@ -1947,9 +2048,9 @@
       <c r="H25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="14" t="s">
         <v>172</v>
       </c>
@@ -1988,11 +2089,11 @@
       <c r="K26" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
@@ -2013,14 +2114,14 @@
       <c r="H27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23" t="s">
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
@@ -2378,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
@@ -2389,7 +2490,7 @@
     <col min="6" max="14" width="2.85546875" customWidth="1"/>
     <col min="15" max="15" width="1.28515625" customWidth="1"/>
     <col min="16" max="23" width="2.85546875" customWidth="1"/>
-    <col min="24" max="33" width="3.7109375" style="26" customWidth="1"/>
+    <col min="24" max="33" width="3.7109375" style="16" customWidth="1"/>
     <col min="34" max="35" width="5.85546875" customWidth="1"/>
     <col min="36" max="36" width="6.85546875" customWidth="1"/>
   </cols>
@@ -2404,7 +2505,7 @@
       <c r="C1" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="32" t="s">
         <v>175</v>
       </c>
       <c r="G1" s="29" t="s">
@@ -2458,62 +2559,62 @@
       <c r="C2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="30" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="31" t="s">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="Z2" s="31">
+      <c r="Z2" s="18">
         <v>7</v>
       </c>
-      <c r="AA2" s="31">
+      <c r="AA2" s="18">
         <v>6</v>
       </c>
-      <c r="AB2" s="31">
+      <c r="AB2" s="18">
         <v>5</v>
       </c>
-      <c r="AC2" s="31">
+      <c r="AC2" s="18">
         <v>4</v>
       </c>
-      <c r="AD2" s="31">
+      <c r="AD2" s="18">
         <v>3</v>
       </c>
-      <c r="AE2" s="31">
+      <c r="AE2" s="18">
         <v>2</v>
       </c>
-      <c r="AF2" s="31">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="31">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="31" t="s">
+      <c r="AF2" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="AI2" s="31" t="s">
+      <c r="AI2" s="18" t="s">
         <v>209</v>
       </c>
       <c r="AJ2" s="29"/>
@@ -2555,7 +2656,7 @@
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="28"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="1">
         <v>0</v>
       </c>
@@ -2659,7 +2760,7 @@
       <c r="N4" s="1">
         <v>1</v>
       </c>
-      <c r="O4" s="28"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="1">
         <v>0</v>
       </c>
@@ -2763,7 +2864,7 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="28"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -2867,7 +2968,7 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="O6" s="28"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="1">
         <v>1</v>
       </c>
@@ -2971,7 +3072,7 @@
       <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="O7" s="28"/>
+      <c r="O7" s="30"/>
       <c r="P7" s="1">
         <v>0</v>
       </c>
@@ -3075,7 +3176,7 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="28"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="1">
         <v>0</v>
       </c>
@@ -3179,7 +3280,7 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="28"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="1">
         <v>1</v>
       </c>
@@ -3283,7 +3384,7 @@
       <c r="N10" s="1">
         <v>0</v>
       </c>
-      <c r="O10" s="28"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="1">
         <v>1</v>
       </c>
@@ -3387,7 +3488,7 @@
       <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="O11" s="28"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="1">
         <v>0</v>
       </c>
@@ -3491,7 +3592,7 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="28"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="1">
         <v>0</v>
       </c>
@@ -3595,7 +3696,7 @@
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="28"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="1">
         <v>1</v>
       </c>
@@ -3699,7 +3800,7 @@
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="28"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="1">
         <v>1</v>
       </c>
@@ -3803,7 +3904,7 @@
       <c r="N15" s="1">
         <v>1</v>
       </c>
-      <c r="O15" s="28"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="1">
         <v>0</v>
       </c>
@@ -3907,7 +4008,7 @@
       <c r="N16" s="1">
         <v>1</v>
       </c>
-      <c r="O16" s="28"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="1">
         <v>0</v>
       </c>
@@ -4011,7 +4112,7 @@
       <c r="N17" s="1">
         <v>1</v>
       </c>
-      <c r="O17" s="28"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="1">
         <v>1</v>
       </c>
@@ -4115,7 +4216,7 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-      <c r="O18" s="28"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="1">
         <v>1</v>
       </c>
@@ -4219,7 +4320,7 @@
       <c r="N19" s="1">
         <v>0</v>
       </c>
-      <c r="O19" s="28"/>
+      <c r="O19" s="30"/>
       <c r="P19" s="1">
         <v>0</v>
       </c>
@@ -4323,7 +4424,7 @@
       <c r="N20" s="1">
         <v>1</v>
       </c>
-      <c r="O20" s="28"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="1">
         <v>0</v>
       </c>
@@ -4420,7 +4521,7 @@
       <c r="N21" s="1">
         <v>1</v>
       </c>
-      <c r="O21" s="28"/>
+      <c r="O21" s="30"/>
       <c r="P21" s="1">
         <v>1</v>
       </c>
@@ -4537,15 +4638,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="O2:O21"/>
     <mergeCell ref="G1:W1"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="P2:W2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4553,4 +4654,324 @@
     <ignoredError sqref="B8 B2 B3 B4 B5 B6 B7 B10 B9 B12 B11 B14 B13 B16 B15 B18 B17 B20 B19 C18 C14 C10 C2:C9 C11:C13 C15:C17 C19:C20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10.42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="1">
+        <f>SUM(G2:G3)</f>
+        <v>11.54</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="35">
+        <v>3</v>
+      </c>
+      <c r="L4" s="35">
+        <v>0</v>
+      </c>
+      <c r="M4" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="35">
+        <v>0</v>
+      </c>
+      <c r="M5" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.37</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10.42</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="1">
+        <f>SUM(G6:G7)</f>
+        <v>11.79</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.16</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="K9" s="35">
+        <v>3</v>
+      </c>
+      <c r="L9" s="35">
+        <v>0</v>
+      </c>
+      <c r="M9" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="K10" s="35">
+        <v>2</v>
+      </c>
+      <c r="L10" s="35">
+        <v>0</v>
+      </c>
+      <c r="M10" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/datasheet.xlsx
+++ b/data/datasheet.xlsx
@@ -884,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -986,6 +986,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4658,10 +4661,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4674,11 +4677,7 @@
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="9" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4707,13 +4706,6 @@
       <c r="H1" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
@@ -4731,21 +4723,6 @@
       <c r="G2" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
@@ -4763,21 +4740,6 @@
       <c r="G3" s="1">
         <v>10.42</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J3" s="35">
-        <v>1.2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2.95</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.0099999999999998</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="s">
@@ -4796,21 +4758,6 @@
         <f>SUM(G2:G3)</f>
         <v>11.54</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J4" s="35">
-        <v>2.5</v>
-      </c>
-      <c r="K4" s="35">
-        <v>3</v>
-      </c>
-      <c r="L4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="35">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
@@ -4828,21 +4775,6 @@
       <c r="G5" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J5" s="35">
-        <v>2.5</v>
-      </c>
-      <c r="K5" s="35">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="35">
-        <v>0</v>
-      </c>
-      <c r="M5" s="35">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
@@ -4860,13 +4792,6 @@
       <c r="G6" s="1">
         <v>1.37</v>
       </c>
-      <c r="I6" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="33" t="s">
@@ -4884,21 +4809,6 @@
       <c r="G7" s="1">
         <v>10.42</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
@@ -4917,60 +4827,165 @@
         <f>SUM(G6:G7)</f>
         <v>11.79</v>
       </c>
-      <c r="I8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J11" s="35">
         <v>1.2</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K11" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="35">
+        <v>3</v>
+      </c>
+      <c r="L12" s="35">
+        <v>0</v>
+      </c>
+      <c r="M12" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="35">
+        <v>0</v>
+      </c>
+      <c r="M13" s="35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="1">
         <v>3.16</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L16" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M16" s="1">
         <v>2.02</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I9" s="1" t="s">
+    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J17" s="35">
         <v>2.5</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K17" s="35">
         <v>3</v>
       </c>
-      <c r="L9" s="35">
-        <v>0</v>
-      </c>
-      <c r="M9" s="35">
+      <c r="L17" s="35">
+        <v>0</v>
+      </c>
+      <c r="M17" s="35">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I10" s="1" t="s">
+    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J18" s="35">
         <v>2.5</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K18" s="35">
         <v>2</v>
       </c>
-      <c r="L10" s="35">
-        <v>0</v>
-      </c>
-      <c r="M10" s="35">
+      <c r="L18" s="35">
+        <v>0</v>
+      </c>
+      <c r="M18" s="35">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
